--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\IDS6938-SimulationTechniques\Discrete2\build\Part I Text Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\IDS6938-SimulationTechniques\Homework2\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>SOB</t>
+  </si>
+  <si>
+    <t>RLX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,7 +135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ranlux 48</a:t>
+              <a:t>Ranlux 48 Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1019,7 +1046,1839 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sobol</a:t>
+              <a:t>Mt19937_64 Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$1:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$1:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10C0-4A31-AEB3-12E4E793538F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420609104"/>
+        <c:axId val="420608448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420609104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420608448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420608448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420609104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Knuth_b Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8813559610535797E-2"/>
+          <c:y val="0.11069031238455587"/>
+          <c:w val="0.92136015323341325"/>
+          <c:h val="0.84145100530608119"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5489-4AA2-98BA-9C1B018804AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420887296"/>
+        <c:axId val="420888280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420887296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420888280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420888280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420887296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sobol Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1895,7 +3754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1930,7 +3789,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Minstd_Rand</a:t>
+              <a:t>Minstd_Rand Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2758,1828 +4617,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="412626840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Knuth_b</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$1:$J$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$1:$K$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5489-4AA2-98BA-9C1B018804AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="420887296"/>
-        <c:axId val="420888280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="420887296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420888280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="420888280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420887296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mt19937_64</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$1:$M$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$1:$N$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-10C0-4A31-AEB3-12E4E793538F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="420609104"/>
-        <c:axId val="420608448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="420609104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420608448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="420608448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420609104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7412,16 +7449,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>464994</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7448,23 +7485,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>237692</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>528206</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352F2C78-D740-4B23-95B8-84543E6501BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A808B7B8-89F3-486B-81EF-E650311B4F9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7484,23 +7521,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561542</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>585786</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>407844</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D7ABA-B1A1-423E-B048-44AAE4615ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14345F-A7FD-47D8-8E2A-8855D98EF771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7520,23 +7557,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>67107</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>309995</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14345F-A7FD-47D8-8E2A-8855D98EF771}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352F2C78-D740-4B23-95B8-84543E6501BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7556,23 +7593,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>593146</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>244186</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A808B7B8-89F3-486B-81EF-E650311B4F9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D7ABA-B1A1-423E-B048-44AAE4615ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7890,15 +7927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E101"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -7929,8 +7970,14 @@
       <c r="N1">
         <v>486</v>
       </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7961,8 +8008,14 @@
       <c r="N2">
         <v>982</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7993,8 +8046,14 @@
       <c r="N3">
         <v>1014</v>
       </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8025,8 +8084,17 @@
       <c r="N4">
         <v>1041</v>
       </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8057,8 +8125,21 @@
       <c r="N5">
         <v>954</v>
       </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>_xlfn.CHISQ.TEST(N1:N101, S1:S101)</f>
+        <v>1.2057447183204937E-77</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8089,8 +8170,21 @@
       <c r="N6">
         <v>974</v>
       </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f>_xlfn.CHISQ.TEST(K1:K101, S1:S101)</f>
+        <v>2.4586681998423138E-75</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8121,8 +8215,21 @@
       <c r="N7">
         <v>990</v>
       </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <f>_xlfn.CHISQ.TEST(H1:H101, S1:S101)</f>
+        <v>4.5227637925644252E-61</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8153,8 +8260,21 @@
       <c r="N8">
         <v>982</v>
       </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <f>_xlfn.CHISQ.TEST(E1:E101, S1:S101)</f>
+        <v>1.0591140066548508E-71</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8185,8 +8305,21 @@
       <c r="N9">
         <v>1001</v>
       </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="1">
+        <v>990.09901000000002</v>
+      </c>
+      <c r="U9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <f>_xlfn.CHISQ.TEST(B1:B101, S1:S101)</f>
+        <v>5.3511161282586716E-72</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8217,8 +8350,14 @@
       <c r="N10">
         <v>989</v>
       </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8249,8 +8388,14 @@
       <c r="N11">
         <v>987</v>
       </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8281,8 +8426,14 @@
       <c r="N12">
         <v>942</v>
       </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8313,8 +8464,14 @@
       <c r="N13">
         <v>1031</v>
       </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8345,8 +8502,14 @@
       <c r="N14">
         <v>973</v>
       </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8377,8 +8540,14 @@
       <c r="N15">
         <v>1012</v>
       </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8409,8 +8578,14 @@
       <c r="N16">
         <v>971</v>
       </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8441,8 +8616,14 @@
       <c r="N17">
         <v>952</v>
       </c>
+      <c r="R17">
+        <v>16</v>
+      </c>
+      <c r="S17" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8473,8 +8654,14 @@
       <c r="N18">
         <v>1031</v>
       </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8505,8 +8692,14 @@
       <c r="N19">
         <v>986</v>
       </c>
+      <c r="R19">
+        <v>18</v>
+      </c>
+      <c r="S19" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8537,8 +8730,14 @@
       <c r="N20">
         <v>999</v>
       </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8569,8 +8768,14 @@
       <c r="N21">
         <v>936</v>
       </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8601,8 +8806,14 @@
       <c r="N22">
         <v>1038</v>
       </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+      <c r="S22" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8633,8 +8844,14 @@
       <c r="N23">
         <v>945</v>
       </c>
+      <c r="R23">
+        <v>22</v>
+      </c>
+      <c r="S23" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8665,8 +8882,14 @@
       <c r="N24">
         <v>986</v>
       </c>
+      <c r="R24">
+        <v>23</v>
+      </c>
+      <c r="S24" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8697,8 +8920,14 @@
       <c r="N25">
         <v>1027</v>
       </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+      <c r="S25" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8729,8 +8958,14 @@
       <c r="N26">
         <v>946</v>
       </c>
+      <c r="R26">
+        <v>25</v>
+      </c>
+      <c r="S26" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8761,8 +8996,14 @@
       <c r="N27">
         <v>986</v>
       </c>
+      <c r="R27">
+        <v>26</v>
+      </c>
+      <c r="S27" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8793,8 +9034,14 @@
       <c r="N28">
         <v>994</v>
       </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8825,8 +9072,14 @@
       <c r="N29">
         <v>1046</v>
       </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+      <c r="S29" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8857,8 +9110,14 @@
       <c r="N30">
         <v>1008</v>
       </c>
+      <c r="R30">
+        <v>29</v>
+      </c>
+      <c r="S30" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8889,8 +9148,14 @@
       <c r="N31">
         <v>987</v>
       </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+      <c r="S31" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8921,8 +9186,14 @@
       <c r="N32">
         <v>1000</v>
       </c>
+      <c r="R32">
+        <v>31</v>
+      </c>
+      <c r="S32" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8953,8 +9224,14 @@
       <c r="N33">
         <v>1033</v>
       </c>
+      <c r="R33">
+        <v>32</v>
+      </c>
+      <c r="S33" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8985,8 +9262,14 @@
       <c r="N34">
         <v>979</v>
       </c>
+      <c r="R34">
+        <v>33</v>
+      </c>
+      <c r="S34" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9017,8 +9300,14 @@
       <c r="N35">
         <v>980</v>
       </c>
+      <c r="R35">
+        <v>34</v>
+      </c>
+      <c r="S35" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9049,8 +9338,14 @@
       <c r="N36">
         <v>1030</v>
       </c>
+      <c r="R36">
+        <v>35</v>
+      </c>
+      <c r="S36" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9081,8 +9376,14 @@
       <c r="N37">
         <v>1050</v>
       </c>
+      <c r="R37">
+        <v>36</v>
+      </c>
+      <c r="S37" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9113,8 +9414,14 @@
       <c r="N38">
         <v>986</v>
       </c>
+      <c r="R38">
+        <v>37</v>
+      </c>
+      <c r="S38" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9145,8 +9452,14 @@
       <c r="N39">
         <v>1057</v>
       </c>
+      <c r="R39">
+        <v>38</v>
+      </c>
+      <c r="S39" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9177,8 +9490,14 @@
       <c r="N40">
         <v>1013</v>
       </c>
+      <c r="R40">
+        <v>39</v>
+      </c>
+      <c r="S40" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9209,8 +9528,14 @@
       <c r="N41">
         <v>976</v>
       </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+      <c r="S41" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9241,8 +9566,14 @@
       <c r="N42">
         <v>949</v>
       </c>
+      <c r="R42">
+        <v>41</v>
+      </c>
+      <c r="S42" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9273,8 +9604,14 @@
       <c r="N43">
         <v>991</v>
       </c>
+      <c r="R43">
+        <v>42</v>
+      </c>
+      <c r="S43" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9305,8 +9642,14 @@
       <c r="N44">
         <v>965</v>
       </c>
+      <c r="R44">
+        <v>43</v>
+      </c>
+      <c r="S44" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9337,8 +9680,14 @@
       <c r="N45">
         <v>1029</v>
       </c>
+      <c r="R45">
+        <v>44</v>
+      </c>
+      <c r="S45" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9369,8 +9718,14 @@
       <c r="N46">
         <v>993</v>
       </c>
+      <c r="R46">
+        <v>45</v>
+      </c>
+      <c r="S46" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9401,8 +9756,14 @@
       <c r="N47">
         <v>1027</v>
       </c>
+      <c r="R47">
+        <v>46</v>
+      </c>
+      <c r="S47" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9433,8 +9794,14 @@
       <c r="N48">
         <v>1010</v>
       </c>
+      <c r="R48">
+        <v>47</v>
+      </c>
+      <c r="S48" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9465,8 +9832,14 @@
       <c r="N49">
         <v>1071</v>
       </c>
+      <c r="R49">
+        <v>48</v>
+      </c>
+      <c r="S49" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9497,8 +9870,14 @@
       <c r="N50">
         <v>1022</v>
       </c>
+      <c r="R50">
+        <v>49</v>
+      </c>
+      <c r="S50" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9529,8 +9908,14 @@
       <c r="N51">
         <v>983</v>
       </c>
+      <c r="R51">
+        <v>50</v>
+      </c>
+      <c r="S51" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9561,8 +9946,14 @@
       <c r="N52">
         <v>1053</v>
       </c>
+      <c r="R52">
+        <v>51</v>
+      </c>
+      <c r="S52" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9593,8 +9984,14 @@
       <c r="N53">
         <v>1026</v>
       </c>
+      <c r="R53">
+        <v>52</v>
+      </c>
+      <c r="S53" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9625,8 +10022,14 @@
       <c r="N54">
         <v>1041</v>
       </c>
+      <c r="R54">
+        <v>53</v>
+      </c>
+      <c r="S54" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9657,8 +10060,14 @@
       <c r="N55">
         <v>1042</v>
       </c>
+      <c r="R55">
+        <v>54</v>
+      </c>
+      <c r="S55" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9689,8 +10098,14 @@
       <c r="N56">
         <v>996</v>
       </c>
+      <c r="R56">
+        <v>55</v>
+      </c>
+      <c r="S56" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9721,8 +10136,14 @@
       <c r="N57">
         <v>994</v>
       </c>
+      <c r="R57">
+        <v>56</v>
+      </c>
+      <c r="S57" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9753,8 +10174,14 @@
       <c r="N58">
         <v>1027</v>
       </c>
+      <c r="R58">
+        <v>57</v>
+      </c>
+      <c r="S58" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9785,8 +10212,14 @@
       <c r="N59">
         <v>950</v>
       </c>
+      <c r="R59">
+        <v>58</v>
+      </c>
+      <c r="S59" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9817,8 +10250,14 @@
       <c r="N60">
         <v>1018</v>
       </c>
+      <c r="R60">
+        <v>59</v>
+      </c>
+      <c r="S60" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9849,8 +10288,14 @@
       <c r="N61">
         <v>1038</v>
       </c>
+      <c r="R61">
+        <v>60</v>
+      </c>
+      <c r="S61" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9881,8 +10326,14 @@
       <c r="N62">
         <v>952</v>
       </c>
+      <c r="R62">
+        <v>61</v>
+      </c>
+      <c r="S62" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9913,8 +10364,14 @@
       <c r="N63">
         <v>966</v>
       </c>
+      <c r="R63">
+        <v>62</v>
+      </c>
+      <c r="S63" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9945,8 +10402,14 @@
       <c r="N64">
         <v>1024</v>
       </c>
+      <c r="R64">
+        <v>63</v>
+      </c>
+      <c r="S64" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9977,8 +10440,14 @@
       <c r="N65">
         <v>929</v>
       </c>
+      <c r="R65">
+        <v>64</v>
+      </c>
+      <c r="S65" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10009,8 +10478,14 @@
       <c r="N66">
         <v>1007</v>
       </c>
+      <c r="R66">
+        <v>65</v>
+      </c>
+      <c r="S66" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10041,8 +10516,14 @@
       <c r="N67">
         <v>1076</v>
       </c>
+      <c r="R67">
+        <v>66</v>
+      </c>
+      <c r="S67" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10073,8 +10554,14 @@
       <c r="N68">
         <v>1008</v>
       </c>
+      <c r="R68">
+        <v>67</v>
+      </c>
+      <c r="S68" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10105,8 +10592,14 @@
       <c r="N69">
         <v>951</v>
       </c>
+      <c r="R69">
+        <v>68</v>
+      </c>
+      <c r="S69" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10137,8 +10630,14 @@
       <c r="N70">
         <v>1037</v>
       </c>
+      <c r="R70">
+        <v>69</v>
+      </c>
+      <c r="S70" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10169,8 +10668,14 @@
       <c r="N71">
         <v>1026</v>
       </c>
+      <c r="R71">
+        <v>70</v>
+      </c>
+      <c r="S71" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10201,8 +10706,14 @@
       <c r="N72">
         <v>1007</v>
       </c>
+      <c r="R72">
+        <v>71</v>
+      </c>
+      <c r="S72" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10233,8 +10744,14 @@
       <c r="N73">
         <v>1074</v>
       </c>
+      <c r="R73">
+        <v>72</v>
+      </c>
+      <c r="S73" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10265,8 +10782,14 @@
       <c r="N74">
         <v>1019</v>
       </c>
+      <c r="R74">
+        <v>73</v>
+      </c>
+      <c r="S74" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10297,8 +10820,14 @@
       <c r="N75">
         <v>1037</v>
       </c>
+      <c r="R75">
+        <v>74</v>
+      </c>
+      <c r="S75" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10329,8 +10858,14 @@
       <c r="N76">
         <v>946</v>
       </c>
+      <c r="R76">
+        <v>75</v>
+      </c>
+      <c r="S76" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10361,8 +10896,14 @@
       <c r="N77">
         <v>970</v>
       </c>
+      <c r="R77">
+        <v>76</v>
+      </c>
+      <c r="S77" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10393,8 +10934,14 @@
       <c r="N78">
         <v>978</v>
       </c>
+      <c r="R78">
+        <v>77</v>
+      </c>
+      <c r="S78" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10425,8 +10972,14 @@
       <c r="N79">
         <v>1078</v>
       </c>
+      <c r="R79">
+        <v>78</v>
+      </c>
+      <c r="S79" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10457,8 +11010,14 @@
       <c r="N80">
         <v>1022</v>
       </c>
+      <c r="R80">
+        <v>79</v>
+      </c>
+      <c r="S80" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10489,8 +11048,14 @@
       <c r="N81">
         <v>994</v>
       </c>
+      <c r="R81">
+        <v>80</v>
+      </c>
+      <c r="S81" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10521,8 +11086,14 @@
       <c r="N82">
         <v>967</v>
       </c>
+      <c r="R82">
+        <v>81</v>
+      </c>
+      <c r="S82" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10553,8 +11124,14 @@
       <c r="N83">
         <v>1019</v>
       </c>
+      <c r="R83">
+        <v>82</v>
+      </c>
+      <c r="S83" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10585,8 +11162,14 @@
       <c r="N84">
         <v>1008</v>
       </c>
+      <c r="R84">
+        <v>83</v>
+      </c>
+      <c r="S84" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10617,8 +11200,14 @@
       <c r="N85">
         <v>960</v>
       </c>
+      <c r="R85">
+        <v>84</v>
+      </c>
+      <c r="S85" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10649,8 +11238,14 @@
       <c r="N86">
         <v>997</v>
       </c>
+      <c r="R86">
+        <v>85</v>
+      </c>
+      <c r="S86" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10681,8 +11276,14 @@
       <c r="N87">
         <v>1024</v>
       </c>
+      <c r="R87">
+        <v>86</v>
+      </c>
+      <c r="S87" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10713,8 +11314,14 @@
       <c r="N88">
         <v>975</v>
       </c>
+      <c r="R88">
+        <v>87</v>
+      </c>
+      <c r="S88" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10745,8 +11352,14 @@
       <c r="N89">
         <v>1006</v>
       </c>
+      <c r="R89">
+        <v>88</v>
+      </c>
+      <c r="S89" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10777,8 +11390,14 @@
       <c r="N90">
         <v>997</v>
       </c>
+      <c r="R90">
+        <v>89</v>
+      </c>
+      <c r="S90" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10809,8 +11428,14 @@
       <c r="N91">
         <v>971</v>
       </c>
+      <c r="R91">
+        <v>90</v>
+      </c>
+      <c r="S91" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10841,8 +11466,14 @@
       <c r="N92">
         <v>1018</v>
       </c>
+      <c r="R92">
+        <v>91</v>
+      </c>
+      <c r="S92" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10873,8 +11504,14 @@
       <c r="N93">
         <v>988</v>
       </c>
+      <c r="R93">
+        <v>92</v>
+      </c>
+      <c r="S93" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10905,8 +11542,14 @@
       <c r="N94">
         <v>1013</v>
       </c>
+      <c r="R94">
+        <v>93</v>
+      </c>
+      <c r="S94" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10937,8 +11580,14 @@
       <c r="N95">
         <v>987</v>
       </c>
+      <c r="R95">
+        <v>94</v>
+      </c>
+      <c r="S95" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10969,8 +11618,14 @@
       <c r="N96">
         <v>989</v>
       </c>
+      <c r="R96">
+        <v>95</v>
+      </c>
+      <c r="S96" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11001,8 +11656,14 @@
       <c r="N97">
         <v>1050</v>
       </c>
+      <c r="R97">
+        <v>96</v>
+      </c>
+      <c r="S97" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11033,8 +11694,14 @@
       <c r="N98">
         <v>968</v>
       </c>
+      <c r="R98">
+        <v>97</v>
+      </c>
+      <c r="S98" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11065,8 +11732,14 @@
       <c r="N99">
         <v>956</v>
       </c>
+      <c r="R99">
+        <v>98</v>
+      </c>
+      <c r="S99" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11097,8 +11770,14 @@
       <c r="N100">
         <v>987</v>
       </c>
+      <c r="R100">
+        <v>99</v>
+      </c>
+      <c r="S100" s="1">
+        <v>990.09901000000002</v>
+      </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11128,10 +11807,23 @@
       </c>
       <c r="N101">
         <v>494</v>
+      </c>
+      <c r="R101">
+        <v>100</v>
+      </c>
+      <c r="S101" s="1">
+        <v>990.09901000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <f>SUM(N1:N101)</f>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -14,6 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$5:$U$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$V$5:$V$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$V$5:$V$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$U$5:$U$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$V$5:$V$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$U$5:$U$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$V$5:$V$9</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4665,6 +4674,410 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$U$5:$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MINI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SOB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RLX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2057447183204937E-77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4586681998423138E-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5227637925644252E-61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0591140066548508E-71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3511161282586716E-72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A62-42BD-B2E0-D05BA775EC18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375335480"/>
+        <c:axId val="375326952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375335480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375326952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375326952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375335480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram of Chi-Square Test</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Histogram of Chi-Square Test</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{015EE445-FBEA-4CF6-996E-E2194CCA30B2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B3C4BBFF-268C-4EE7-A214-A5FE54A6C48E}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4865,6 +5278,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7441,6 +7974,1545 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7627,6 +9699,198 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259770</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>51952</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832CF0FD-B327-4395-AFE4-722413770A1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3290452" y="2438400"/>
+              <a:ext cx="7671955" cy="5908964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B570828-CB7D-4CF3-9C15-2A5BC76483E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>346361</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>277089</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51953</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Chart 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9DA4F-7CCC-4DE8-B762-8CF07E32E37E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1558634" y="897080"/>
+              <a:ext cx="8416637" cy="5822373"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7930,7 +10194,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="U5" sqref="U5:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -14172,7 +14172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -14172,14 +14172,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU29" sqref="AU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="27" max="43" width="13.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
+    <col min="46" max="46" width="25.28515625" customWidth="1"/>
     <col min="47" max="47" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mt19937_64 Histogram</a:t>
+              <a:t>Knuth_b Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -263,7 +263,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8813559610535797E-2"/>
+          <c:y val="0.11069031238455587"/>
+          <c:w val="0.92136015323341325"/>
+          <c:h val="0.84145100530608119"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -294,7 +304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Original!$M$1:$M$101</c:f>
+              <c:f>Original!$J$1:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -606,312 +616,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Original!$N$1:$N$101</c:f>
+              <c:f>Original!$K$1:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>486</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>982</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>1001</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>1042</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>929</c:v>
-                </c:pt>
                 <c:pt idx="65">
-                  <c:v>1007</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1076</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>951</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1037</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1026</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="82">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1007</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1018</c:v>
-                </c:pt>
                 <c:pt idx="92">
-                  <c:v>988</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1013</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>987</c:v>
+                  <c:v>1038</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>989</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1050</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>968</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>956</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>987</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>494</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,7 +929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-10C0-4A31-AEB3-12E4E793538F}"/>
+              <c16:uniqueId val="{00000000-5489-4AA2-98BA-9C1B018804AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420609104"/>
-        <c:axId val="420608448"/>
+        <c:axId val="420887296"/>
+        <c:axId val="420888280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420609104"/>
+        <c:axId val="420887296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -993,12 +1003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420608448"/>
+        <c:crossAx val="420888280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420608448"/>
+        <c:axId val="420888280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420609104"/>
+        <c:crossAx val="420887296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2051,7 +2061,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>KNUTH N = 1M</a:t>
+              <a:t>Sobol N =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2118,7 +2132,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$J$2:$J$102</c:f>
+              <c:f>'Vary N 1M'!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2430,312 +2444,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$K$2:$K$102</c:f>
+              <c:f>'Vary N 1M'!$E$2:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4986</c:v>
+                  <c:v>4958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10095</c:v>
+                  <c:v>9840</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10039</c:v>
+                  <c:v>10228</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10058</c:v>
+                  <c:v>10035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10036</c:v>
+                  <c:v>9916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9961</c:v>
+                  <c:v>9936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10058</c:v>
+                  <c:v>10096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10152</c:v>
+                  <c:v>10234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10009</c:v>
+                  <c:v>10116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9914</c:v>
+                  <c:v>9943</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10189</c:v>
+                  <c:v>10012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10092</c:v>
+                  <c:v>10091</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9886</c:v>
+                  <c:v>10162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10032</c:v>
+                  <c:v>10010</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10144</c:v>
+                  <c:v>9902</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>9963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10031</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9917</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9717</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9969</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9936</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9751</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9903</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9929</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10158</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10087</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10041</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10170</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10093</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10033</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10082</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10085</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9834</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10118</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10168</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10016</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9962</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10176</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10020</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>10054</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="56">
+                  <c:v>9926</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10071</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10089</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9892</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9978</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9962</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9982</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9962</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10013</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10103</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>9941</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>9850</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10014</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10037</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10034</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10126</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9847</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9970</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10051</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9962</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10033</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10154</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10235</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10004</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="68">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9958</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10089</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9845</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10040</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9928</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10259</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9889</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10108</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>10163</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>10025</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="80">
+                  <c:v>10090</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9956</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>9940</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>10166</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9970</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9960</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10099</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9966</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9912</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9946</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9849</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9997</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9980</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9983</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9894</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9820</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9943</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9878</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9902</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9838</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10133</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10038</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10026</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9914</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10063</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9987</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9926</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9936</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10013</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9894</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9893</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9997</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10055</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10076</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9795</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10107</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10073</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9803</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10085</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10066</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="84">
+                  <c:v>10120</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9959</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9974</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10082</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>9901</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>10024</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10020</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9922</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10024</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9995</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9891</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9808</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10074</c:v>
-                </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
+                  <c:v>9927</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9824</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9885</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>9859</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>10015</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9991</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9953</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10083</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10154</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10123</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10007</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10091</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10076</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9953</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9879</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>10039</c:v>
+                  <c:v>9951</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9996</c:v>
+                  <c:v>10049</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9934</c:v>
+                  <c:v>10021</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9980</c:v>
+                  <c:v>10270</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4966</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,7 +2757,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4383-43C6-BBDA-34075DB99484}"/>
+              <c16:uniqueId val="{00000000-92E2-4F2E-AD90-17CDCF1F1AF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2755,11 +2769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405602864"/>
-        <c:axId val="405605816"/>
+        <c:axId val="373580232"/>
+        <c:axId val="373581872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405602864"/>
+        <c:axId val="373580232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2817,14 +2831,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405605816"/>
+        <c:crossAx val="373581872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405605816"/>
+        <c:axId val="373581872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2879,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405602864"/>
+        <c:crossAx val="373580232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
@@ -2964,7 +2979,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MT N = 1M</a:t>
+              <a:t>MINISTD N = 1M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3031,7 +3046,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$M$2:$M$102</c:f>
+              <c:f>'Vary N 1M'!$G$2:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3343,312 +3358,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$N$2:$N$102</c:f>
+              <c:f>'Vary N 1M'!$H$2:$H$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>5081</c:v>
+                  <c:v>5003</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10058</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10087</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9796</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9886</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10257</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10068</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10088</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10179</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10040</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9934</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10061</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10058</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9844</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10179</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10037</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9866</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9986</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9772</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9912</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10074</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9788</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10210</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9909</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9951</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10072</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9934</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9959</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10035</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10074</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10061</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10126</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10010</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9838</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9907</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9971</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9936</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9903</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10140</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9847</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10070</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9908</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10134</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10080</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9824</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10032</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9848</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10031</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9843</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>10092</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9917</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10062</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9944</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10090</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9915</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9862</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9893</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9898</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9959</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9895</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9884</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9979</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10114</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10111</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9941</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10062</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10106</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10067</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9950</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10119</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9876</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10120</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10027</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="93">
+                  <c:v>10064</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10055</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10125</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>10005</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>9881</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10034</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10138</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9968</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9897</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9972</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9861</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9957</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9882</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9987</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9981</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9947</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9995</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10117</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9942</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10075</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10088</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10007</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10093</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9839</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9980</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10067</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10032</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9950</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10047</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9938</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9964</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9994</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9907</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10091</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10120</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10030</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10093</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10012</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10102</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9917</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9919</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10133</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9985</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10141</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10146</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9983</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10102</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10093</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9933</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10071</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9920</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9817</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10009</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10054</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9932</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9860</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10004</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>10041</c:v>
+                  <c:v>10048</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9962</c:v>
+                  <c:v>10013</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9997</c:v>
+                  <c:v>10099</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4974</c:v>
+                  <c:v>4936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7606-4F34-99F3-65E6F52D9F56}"/>
+              <c16:uniqueId val="{00000000-3200-4912-9902-56BDB859DBA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3668,11 +3683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377767384"/>
-        <c:axId val="377768696"/>
+        <c:axId val="406479584"/>
+        <c:axId val="406475320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377767384"/>
+        <c:axId val="406479584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3730,12 +3745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377768696"/>
+        <c:crossAx val="406475320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377768696"/>
+        <c:axId val="406475320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -3793,7 +3808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377767384"/>
+        <c:crossAx val="406479584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
@@ -4792,7 +4807,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MINISTD N = 1M</a:t>
+              <a:t>MT N = 1M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4859,7 +4874,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$G$2:$G$102</c:f>
+              <c:f>'Vary N 1M'!$M$2:$M$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5171,312 +5186,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$H$2:$H$102</c:f>
+              <c:f>'Vary N 1M'!$N$2:$N$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>5003</c:v>
+                  <c:v>5081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10001</c:v>
+                  <c:v>10092</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9944</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9862</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9895</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10062</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10067</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10120</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10027</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9881</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10034</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10138</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9968</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10010</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9972</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9861</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9957</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9882</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9981</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9947</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9942</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10075</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10088</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10093</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9839</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9980</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10067</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10032</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10047</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9938</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9964</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9907</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10091</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10120</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10030</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10093</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>10012</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9941</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10069</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10026</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9981</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9961</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10058</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9958</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10033</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="77">
+                  <c:v>10102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9917</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9919</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10133</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9985</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10141</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10146</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>9983</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>9984</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="85">
+                  <c:v>10102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10093</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9933</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10071</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9920</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9932</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>10004</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>10049</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10087</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9796</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10082</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9886</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10257</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10042</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10068</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10088</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9970</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10179</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10073</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9913</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10081</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10040</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9934</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10061</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9941</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9924</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10058</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10102</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9844</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10179</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10037</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9866</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9986</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10143</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9964</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9772</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9912</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10074</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9788</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10210</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9909</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9951</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10072</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9934</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9959</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10035</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10074</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9903</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10061</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10126</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9838</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9984</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9907</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9971</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9936</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10008</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9903</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10005</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10140</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9899</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9970</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9847</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10070</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9908</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9840</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9863</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9996</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10134</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10080</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10021</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10037</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9824</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10032</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9848</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10031</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9843</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10092</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10064</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10055</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10125</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10005</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>10048</c:v>
+                  <c:v>10041</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10013</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10099</c:v>
+                  <c:v>9997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4936</c:v>
+                  <c:v>4974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5484,7 +5499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3200-4912-9902-56BDB859DBA4}"/>
+              <c16:uniqueId val="{00000000-7606-4F34-99F3-65E6F52D9F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5496,11 +5511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406479584"/>
-        <c:axId val="406475320"/>
+        <c:axId val="377767384"/>
+        <c:axId val="377768696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406479584"/>
+        <c:axId val="377767384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5558,12 +5573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406475320"/>
+        <c:crossAx val="377768696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406475320"/>
+        <c:axId val="377768696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -5621,7 +5636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406479584"/>
+        <c:crossAx val="377767384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
@@ -5706,11 +5721,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sobol N =</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 1M</a:t>
+              <a:t>KNUTH N = 1M</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5777,7 +5788,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$D$2:$D$102</c:f>
+              <c:f>'Vary N 1M'!$J$2:$J$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6089,312 +6100,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vary N 1M'!$E$2:$E$102</c:f>
+              <c:f>'Vary N 1M'!$K$2:$K$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4958</c:v>
+                  <c:v>4986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9840</c:v>
+                  <c:v>10095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10228</c:v>
+                  <c:v>10039</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10035</c:v>
+                  <c:v>10058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9916</c:v>
+                  <c:v>10036</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10034</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9847</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10051</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10154</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10235</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10163</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10025</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9940</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10166</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9966</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9849</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9980</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9894</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9820</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9943</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9878</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9838</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10133</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10038</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9914</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9987</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9926</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>9936</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10234</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10116</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9943</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10012</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="63">
+                  <c:v>10013</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9894</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9893</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10055</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10076</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9795</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9803</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10066</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9901</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9922</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10024</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9891</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9808</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9859</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10015</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9953</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10083</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10154</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10123</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10007</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>10091</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>10162</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9963</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10031</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9901</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9917</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9966</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10130</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9717</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9969</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10045</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9936</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9935</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9751</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9898</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9773</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9903</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9978</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9929</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10158</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10087</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10170</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10093</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10033</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10082</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9899</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9865</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10085</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9834</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10118</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10168</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10016</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10132</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="93">
+                  <c:v>10076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9953</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9879</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10039</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>9996</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>9962</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10176</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10020</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10054</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9926</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10071</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10089</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9892</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9978</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9962</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9982</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9962</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10013</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10103</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9941</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9987</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9958</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9890</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10089</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9845</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10040</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9928</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10259</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9889</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10108</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10163</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10090</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9956</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9940</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10120</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9959</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9974</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10082</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9901</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9927</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9984</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9824</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9972</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9885</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9950</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9859</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9951</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10049</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>10021</c:v>
+                  <c:v>9934</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10270</c:v>
+                  <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4980</c:v>
+                  <c:v>4966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,7 +6413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92E2-4F2E-AD90-17CDCF1F1AF4}"/>
+              <c16:uniqueId val="{00000000-4383-43C6-BBDA-34075DB99484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6414,11 +6425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373580232"/>
-        <c:axId val="373581872"/>
+        <c:axId val="405602864"/>
+        <c:axId val="405605816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373580232"/>
+        <c:axId val="405602864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6476,15 +6487,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373581872"/>
+        <c:crossAx val="405605816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373581872"/>
+        <c:axId val="405605816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6539,7 +6549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373580232"/>
+        <c:crossAx val="405602864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
@@ -6934,1841 +6944,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Knuth_b Histogram</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.8813559610535797E-2"/>
-          <c:y val="0.11069031238455587"/>
-          <c:w val="0.92136015323341325"/>
-          <c:h val="0.84145100530608119"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Original!$J$1:$J$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Original!$K$1:$K$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5489-4AA2-98BA-9C1B018804AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="420887296"/>
-        <c:axId val="420888280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="420887296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420888280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="420888280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420887296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sobol Histogram</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Original!$D$1:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Original!$E$1:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1056</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAE0-45CF-A543-F6B66B60E430}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="412435800"/>
-        <c:axId val="412438752"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="412435800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="412438752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="412438752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="412435800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Minstd_Rand Histogram</a:t>
+              <a:t>Minstd_Rand Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9645,7 +7821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9680,7 +7856,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ranlux 48 Histogram</a:t>
+              <a:t>Ranlux 48 Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10509,6 +8685,1830 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="358404048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mt19937_64 Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Original!$M$1:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Original!$N$1:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10C0-4A31-AEB3-12E4E793538F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420609104"/>
+        <c:axId val="420608448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420609104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420608448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420608448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420609104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sobol Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Original!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Original!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAE0-45CF-A543-F6B66B60E430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412435800"/>
+        <c:axId val="412438752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412435800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412438752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412438752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412435800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24306,6 +24306,114 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>249814</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>407843</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14345F-A7FD-47D8-8E2A-8855D98EF771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489237</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>296141</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D7ABA-B1A1-423E-B048-44AAE4615ADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361084</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDFC23C-2AC7-496E-B1D9-90CFB8897AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>410875</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -24334,43 +24442,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>249814</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>103042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>407843</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>169718</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14345F-A7FD-47D8-8E2A-8855D98EF771}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24406,78 +24478,6 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>452004</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179243</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D7ABA-B1A1-423E-B048-44AAE4615ADC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>207817</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>361084</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDFC23C-2AC7-496E-B1D9-90CFB8897AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
@@ -24491,16 +24491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24566,15 +24566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484907</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135081</xdr:rowOff>
+      <xdr:colOff>502225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>294408</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>311726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24601,16 +24601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>363680</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>65809</xdr:rowOff>
+      <xdr:rowOff>117763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>138544</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24678,23 +24678,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAFDF6-7F66-4232-BB4C-3FDF67BBE99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33745C8D-AD4E-45D8-A31A-0B0A771C0256}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24716,23 +24716,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>173180</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>48489</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450271</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0538464B-92AB-48BD-B659-DAC95EB919C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCC6823-FDD9-4666-8867-90ACDA8CDC31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24754,16 +24754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24792,23 +24792,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>117762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>398316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCC6823-FDD9-4666-8867-90ACDA8CDC31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0538464B-92AB-48BD-B659-DAC95EB919C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24830,23 +24830,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>117763</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33745C8D-AD4E-45D8-A31A-0B0A771C0256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAFDF6-7F66-4232-BB4C-3FDF67BBE99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25367,8 +25367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18:AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32553,7 +32553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="KS Test" sheetId="3" r:id="rId4"/>
     <sheet name="CS Graphs" sheetId="2" r:id="rId5"/>
     <sheet name="All Ran" sheetId="7" r:id="rId6"/>
-    <sheet name="All Sob" sheetId="8" r:id="rId7"/>
-    <sheet name="All Knuth" sheetId="9" r:id="rId8"/>
-    <sheet name="All Ministd" sheetId="10" r:id="rId9"/>
-    <sheet name="All MT" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId7"/>
+    <sheet name="All Sob" sheetId="8" r:id="rId8"/>
+    <sheet name="All Knuth" sheetId="9" r:id="rId9"/>
+    <sheet name="All Ministd" sheetId="10" r:id="rId10"/>
+    <sheet name="All MT" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Original!$U$5:$U$9</definedName>
@@ -39929,16 +39930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>332757</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:colOff>87829</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40098,16 +40099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>212148</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>150670</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>189735</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47763,6 +47764,21 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -66085,7 +66101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -66100,14 +66116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -66115,8 +66128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66131,7 +66144,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="All Knuth" sheetId="9" r:id="rId9"/>
     <sheet name="All Ministd" sheetId="10" r:id="rId10"/>
     <sheet name="All MT" sheetId="11" r:id="rId11"/>
+    <sheet name="Part C" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Original!$U$5:$U$9</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>CHI</t>
   </si>
@@ -133,6 +134,24 @@
   </si>
   <si>
     <t>MT N=1M</t>
+  </si>
+  <si>
+    <t>MT - Uniform Real</t>
+  </si>
+  <si>
+    <t>MT Normal</t>
+  </si>
+  <si>
+    <t>Uniform Int</t>
+  </si>
+  <si>
+    <t>Discreet</t>
+  </si>
+  <si>
+    <t>Cauchy</t>
+  </si>
+  <si>
+    <t>Fisher F</t>
   </si>
 </sst>
 </file>
@@ -47789,11 +47808,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>

--- a/Homework2/images/Excel Histo Data Graphs.xlsx
+++ b/Homework2/images/Excel Histo Data Graphs.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>CHI</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Uniform Int</t>
-  </si>
-  <si>
-    <t>Discreet</t>
   </si>
   <si>
     <t>Cauchy</t>
@@ -43861,7 +43858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AH18" sqref="AH18:AH19"/>
     </sheetView>
   </sheetViews>
@@ -47813,7 +47810,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47829,13 +47826,13 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
